--- a/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A611E68-3E37-4936-9462-40D4B03D0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D346693-65DB-45D2-BEE9-6FF11295F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25740" yWindow="3000" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D346693-65DB-45D2-BEE9-6FF11295F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677C3FB-23A6-4EE0-94E8-365E518E025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3000" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -140,22 +140,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>-5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3409,12 +3409,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3460,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3539,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.85675054428873</v>
+        <v>161.48221744547257</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.06853005730292</v>
+        <v>153.87000691471084</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.5425794334721</v>
+        <v>150.67647846931115</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.37082858279371</v>
+        <v>146.3216669528571</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.42807886635316</v>
+        <v>147.77327079167512</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.29071308792732</v>
+        <v>154.02678012930315</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>236.86356864790213</v>
+        <v>167.1318595861523</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.7097448672078</v>
+        <v>173.3737560930698</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.40744634171699</v>
+        <v>180.92209605492354</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>243.10938050878869</v>
+        <v>171.53892884080383</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.58772074771511</v>
+        <v>167.64282413741628</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.78086774198482</v>
+        <v>152.2558234459452</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.80661291852812</v>
+        <v>148.04036589801763</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.30993471504269</v>
+        <v>126.52179059137922</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.55145571317195</v>
+        <v>131.63143610401863</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16357631652738</v>
+        <v>119.36248045832868</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.58002268475693</v>
+        <v>116.12830710544213</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.70774856452769</v>
+        <v>115.51282707778329</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>165.86374686169802</v>
+        <v>117.03410790086457</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.38652296610698</v>
+        <v>132.92626672824434</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.33009447169755</v>
+        <v>161.11060686273515</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.02562142973073</v>
+        <v>160.8957694945901</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.91253176013262</v>
+        <v>152.34872609162954</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.38763930944239</v>
+        <v>144.92232085223651</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.41391301707429</v>
+        <v>153.40810657319892</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.16510355443776</v>
+        <v>146.17650656897527</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.8654504617985</v>
+        <v>143.1426545458456</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.00228715365401</v>
+        <v>139.00558360521421</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.95667492303551</v>
+        <v>140.38460725209134</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.37617743353096</v>
+        <v>146.32544112283799</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.02039021550704</v>
+        <v>158.7752666068447</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>233.42425762384741</v>
+        <v>164.70506828841633</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>243.58707402463116</v>
+        <v>171.87599125217739</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.95391148334923</v>
+        <v>162.96198239876364</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.70833471032935</v>
+        <v>159.26068293054544</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>204.99182435488558</v>
+        <v>144.64303227364795</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.31628227260171</v>
+        <v>140.63834760311673</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.34443797929055</v>
+        <v>120.19570106181025</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.22388292751333</v>
+        <v>125.0498642988177</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.705397500701</v>
+        <v>113.39435643541223</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.35102155051905</v>
+        <v>110.32189175017002</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.5223611363013</v>
+        <v>109.73718572389411</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>157.57055951861309</v>
+        <v>111.18240250582134</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.96719681780164</v>
+        <v>126.27995339183211</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>216.91358974811266</v>
+        <v>153.0550765195984</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>216.62434035824418</v>
+        <v>152.8509810198606</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.11690517212597</v>
+        <v>144.73128978704804</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.11825734397027</v>
+        <v>137.67620480962469</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>240.29958807150319</v>
+        <v>169.55632831774619</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.97195656016808</v>
+        <v>161.56350726044639</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>224.2197084051457</v>
+        <v>158.21030239277673</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.7393700119334</v>
+        <v>153.63775030049996</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.89948280967081</v>
+        <v>155.16193433125886</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>229.20524874232368</v>
+        <v>161.72811913576831</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>248.70674708029725</v>
+        <v>175.48845256545991</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>257.99523211056822</v>
+        <v>182.0424438977233</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>269.22781865880285</v>
+        <v>189.96820085766973</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.26484953422815</v>
+        <v>180.11587528284406</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.46710678510087</v>
+        <v>176.0249653442871</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.56991112908406</v>
+        <v>159.86861461824247</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.29694356445452</v>
+        <v>155.4423841929185</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.27543145079483</v>
+        <v>132.84788012094819</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.87902849883054</v>
+        <v>138.21300790921958</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.62175513235374</v>
+        <v>125.33060448124512</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.80902381899477</v>
+        <v>121.93472246071426</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.89313599275408</v>
+        <v>121.28846843167244</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.15693420478294</v>
+        <v>122.88581329590782</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.80584911441235</v>
+        <v>139.57258006465653</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.74659919528241</v>
+        <v>169.16613720587191</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.42690250121726</v>
+        <v>168.9405579693196</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.70815834813925</v>
+        <v>159.96616239621102</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.65702127491451</v>
+        <v>152.16843689484833</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.97107548985986</v>
+        <v>145.3339957009253</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.26167705157266</v>
+        <v>138.48300622323976</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.18832149012491</v>
+        <v>135.60883062238005</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.63374572451437</v>
+        <v>131.68950025757138</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.48527097971785</v>
+        <v>132.9959437125076</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.4616417791346</v>
+        <v>138.62410211637285</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.17721178311191</v>
+        <v>150.41867362753709</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.13877038048702</v>
+        <v>156.03638048376283</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>162.8298864494312</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.79844245790983</v>
+        <v>154.38503595672347</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.82894867294362</v>
+        <v>150.87854172367466</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.20278096778634</v>
+        <v>137.0302411013507</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.82595162667531</v>
+        <v>133.23632930821586</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.37894124353841</v>
+        <v>113.86961153224129</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.89631014185477</v>
+        <v>118.46829249361679</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.24721868487464</v>
+        <v>107.42623241249581</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.12202041628123</v>
+        <v>104.51547639489793</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.33697370807494</v>
+        <v>103.96154437000496</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.2773721755282</v>
+        <v>105.33069711077812</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.54787066949629</v>
+        <v>119.63364005541989</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.49708502452779</v>
+        <v>144.99954617646165</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.22305928675766</v>
+        <v>144.8061925451311</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.32127858411937</v>
+        <v>137.1138534824666</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.84887537849815</v>
+        <v>130.43008876701285</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>251.74242559871766</v>
+        <v>177.63043919001984</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.87538306303324</v>
+        <v>169.25700760618193</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.89683737681932</v>
+        <v>165.7441263162423</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.1079114410731</v>
+        <v>160.95383364814282</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.3708867529885</v>
+        <v>162.55059787084264</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>240.11978439672009</v>
+        <v>169.4294581422335</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>260.54992551269237</v>
+        <v>183.84504554476754</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>270.28071935392859</v>
+        <v>190.7111317023768</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>199.01430566041594</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>267.42031855966758</v>
+        <v>188.69282172488425</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.34649282248665</v>
+        <v>184.40710655115791</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.35895451618333</v>
+        <v>167.48140579053975</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.78727421038093</v>
+        <v>162.84440248781939</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.24092818654697</v>
+        <v>139.17396965051714</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.20660128448915</v>
+        <v>144.79457971442051</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.0799339481801</v>
+        <v>131.29872850416155</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.03802495323265</v>
+        <v>127.74113781598638</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.07852342098047</v>
+        <v>127.06410978556163</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.45012154786781</v>
+        <v>128.73751869095102</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.2251752627177</v>
+        <v>146.21889340106875</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>251.16310391886731</v>
+        <v>177.22166754900869</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>250.82818357270381</v>
+        <v>176.9853464440491</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.50378493614591</v>
+        <v>167.58359870079252</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.92640324038666</v>
+        <v>159.4145529374602</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +4058,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,512 +4137,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.153340341509065</v>
+        <v>58.990191850454238</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.666155234192495</v>
+        <v>59.645638426570393</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.281489268343407</v>
+        <v>65.544657611615818</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.666155234192495</v>
+        <v>59.645638426570393</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.640525448825628</v>
+        <v>58.334745274338083</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.102080770775324</v>
+        <v>56.368405545989603</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.025191414674723</v>
+        <v>52.435726089292658</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.538006307358167</v>
+        <v>53.091172665408827</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.589265878091894</v>
+        <v>55.712958969873448</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.127710556142198</v>
+        <v>57.679298698221928</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.845673324433605</v>
+        <v>56.040682257931522</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.332847472482868</v>
+        <v>56.663356505241872</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.717414804926236</v>
+        <v>62.267424731035028</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.332847472482868</v>
+        <v>56.663356505241872</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.358499176384349</v>
+        <v>55.418008010621179</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.89697673223656</v>
+        <v>53.549985268690129</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.973931843940981</v>
+        <v>49.813939784828023</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.461105991990252</v>
+        <v>50.43661403213838</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.409802584187297</v>
+        <v>52.927311021379772</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.871325028335079</v>
+        <v>54.795333763310822</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.461007358584524</v>
+        <v>61.939701442976961</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.999462995902121</v>
+        <v>62.627920347898915</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.845563731760571</v>
+        <v>68.821890492196616</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.999462995902121</v>
+        <v>62.627920347898915</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.922551721266913</v>
+        <v>61.251482538054987</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.307184809314087</v>
+        <v>59.186825823289084</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.614906622726075</v>
+        <v>55.745731298679274</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.76872917199649</v>
+        <v>58.498606918367123</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.538006307358152</v>
+        <v>53.091172665408813</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.999539710773242</v>
+        <v>53.681074583913357</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.153340341509065</v>
+        <v>58.990191850454238</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.999539710773242</v>
+        <v>53.681074583913357</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.076472903943063</v>
+        <v>52.501270746904275</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.691872693697796</v>
+        <v>50.731564991390648</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.922672273207255</v>
+        <v>47.192153480363395</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.384205676622351</v>
+        <v>47.782055398867946</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.230339290282707</v>
+        <v>50.141663072886104</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.614939500527981</v>
+        <v>51.911368828399738</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.76867437565997</v>
+        <v>64.88921103549967</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.332770757611748</v>
+        <v>65.610202269227443</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.409638195177742</v>
+        <v>72.099123372777399</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.332770757611748</v>
+        <v>65.610202269227443</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.204577993708199</v>
+        <v>64.168219801771897</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.512288847852865</v>
+        <v>62.005246100588572</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.127710556142198</v>
+        <v>57.679298698221928</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.691806938093983</v>
+        <v>58.400289931949708</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.948192465901087</v>
+        <v>61.284254866860806</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.640481611756421</v>
+        <v>63.447228568044125</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4681,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,509 +4760,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.74242559871766</v>
+        <v>321.76076255982429</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.3819261490232</v>
+        <v>313.6311866715817</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.54992551269237</v>
+        <v>333.01793497256415</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.28071935392859</v>
+        <v>345.45520151284711</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>360.49561686388705</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.40722715637099</v>
+        <v>353.28570452660932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.22770906612982</v>
+        <v>356.89066069524819</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>360.49561686388705</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.76626333685317</v>
+        <v>346.07579218933159</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.12529951733541</v>
+        <v>338.86587985205381</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.48433569781764</v>
+        <v>331.65596751477608</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.20240805878211</v>
+        <v>317.23614284022062</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>225.92640324038666</v>
+        <v>288.76440518969667</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>239.15530431878176</v>
+        <v>305.67272443183305</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.11282984157199</v>
+        <v>297.94962733800259</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.52242923705774</v>
+        <v>316.36703822393588</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.76668338623216</v>
+        <v>328.18244143720472</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.94578142709435</v>
+        <v>342.47083602069273</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.58686579855242</v>
+        <v>335.62141930027883</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.26632361282333</v>
+        <v>339.04612766048575</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.94578142709435</v>
+        <v>342.47083602069273</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.2279501700105</v>
+        <v>328.77200257986499</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.15120328438488</v>
+        <v>308.22375241862346</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.86903454146864</v>
+        <v>321.92258585945115</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.51011891292674</v>
+        <v>315.07316913903725</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.79228765584298</v>
+        <v>301.37433569820956</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.63008307836731</v>
+        <v>274.32618493021181</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.32954687865356</v>
+        <v>337.84880068781553</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.65102245647438</v>
+        <v>329.31274600516082</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.577421788327</v>
+        <v>349.66883172119236</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.79475532162502</v>
+        <v>362.72796158848945</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.15060052468317</v>
+        <v>378.52039770708143</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.22758851418951</v>
+        <v>370.94998975293976</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>293.18909451943637</v>
+        <v>374.73519373001062</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.15060052468317</v>
+        <v>378.52039770708143</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.30457650369584</v>
+        <v>363.37958179879814</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.5355404722149</v>
+        <v>340.6683579363733</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.38156449320218</v>
+        <v>355.80917384465653</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.45855248270851</v>
+        <v>348.23876589051486</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.61252846172124</v>
+        <v>333.09794998223168</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>237.22272340240605</v>
+        <v>303.20262544918154</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.56818303884589</v>
+        <v>289.58468630384186</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.8437335341209</v>
+        <v>282.26806800442358</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.49493296142316</v>
+        <v>299.71614147530772</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.25264741853573</v>
+        <v>310.90968136156238</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.76650444073388</v>
+        <v>317.9571340739484</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.30493815951687</v>
+        <v>321.20159462572337</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.68963700316786</v>
+        <v>311.46821297039838</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.61276956560187</v>
+        <v>304.97929186684843</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.53590212803584</v>
+        <v>298.49037076329847</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>223.38216725290391</v>
+        <v>285.51252855619856</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.33376291634804</v>
+        <v>259.887964670727</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.91666815858946</v>
+        <v>353.93683881580677</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.92011876392553</v>
+        <v>344.99430533873993</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>286.60491806396163</v>
+        <v>366.31972846982057</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.30879128932145</v>
+        <v>380.00072166413179</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.25301007347764</v>
+        <v>396.54517855027581</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>304.04794987200813</v>
+        <v>388.61427497927031</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>307.15047997274286</v>
+        <v>392.57972676477306</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.25301007347764</v>
+        <v>396.54517855027581</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.84288967053857</v>
+        <v>380.68337140826475</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.22770906612988</v>
+        <v>356.89066069524824</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.63782946906895</v>
+        <v>372.75246783725919</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.43276926759938</v>
+        <v>364.82156426625369</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.02264886466031</v>
+        <v>348.95975712424269</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.51904356442537</v>
+        <v>317.64084570866635</v>
       </c>
     </row>
   </sheetData>
@@ -5278,9 +5278,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,509 +5357,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.97107548985986</v>
+        <v>263.25880573076529</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.76703048556442</v>
+        <v>256.60733454947592</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.17721178311191</v>
+        <v>272.46921952300698</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.13877038048702</v>
+        <v>282.64516487414761</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>294.95095925227122</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.15136767339442</v>
+        <v>289.05194006722576</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>294.95095925227122</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.53603363924353</v>
+        <v>283.15292088218035</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.92069960509261</v>
+        <v>277.25390169713495</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.30536557094169</v>
+        <v>271.35488251208949</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.07469750263988</v>
+        <v>259.55684414199868</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.84887537849815</v>
+        <v>236.26178606429724</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.67252171536686</v>
+        <v>250.095865444227</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.72867896128619</v>
+        <v>243.77696782200212</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.51835119395633</v>
+        <v>258.84575854685664</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.08183186146266</v>
+        <v>268.51290663044023</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.22836662216804</v>
+        <v>280.20341128965765</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.84379928972467</v>
+        <v>274.59934306386447</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.0360829559464</v>
+        <v>277.40137717676112</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.22836662216804</v>
+        <v>280.20341128965765</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.45923195728133</v>
+        <v>268.99527483807134</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.30552995995126</v>
+        <v>252.1830701606919</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.07466462483796</v>
+        <v>263.39120661227821</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.6900972923946</v>
+        <v>257.78713838648503</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.92096262750786</v>
+        <v>246.57900193489871</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.60643160957324</v>
+        <v>224.44869676108237</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.26962926435289</v>
+        <v>276.42174601730358</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.80538200984265</v>
+        <v>269.43770127694972</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.83607237226752</v>
+        <v>286.09268049915732</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.1957088995114</v>
+        <v>296.77742311785499</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.30503679292258</v>
+        <v>309.69850721488478</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.45893605706416</v>
+        <v>303.50453707058711</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>239.88198642499339</v>
+        <v>306.60152214273592</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.30503679292258</v>
+        <v>309.69850721488478</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.61283532120572</v>
+        <v>297.31056692628943</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.07453311363031</v>
+        <v>278.72865649339627</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.76673458534725</v>
+        <v>291.11659678199169</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>222.92063384948878</v>
+        <v>284.92262663769395</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.2284323777719</v>
+        <v>272.53468634909865</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.09131914742306</v>
+        <v>248.07487536751211</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.37396794087388</v>
+        <v>236.93292515768874</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.69032743700797</v>
+        <v>230.94660109452835</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.85949060480073</v>
+        <v>245.22229757070627</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.02489334243833</v>
+        <v>254.38064838673284</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.53623090605498</v>
+        <v>260.14674606050323</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.61313122142292</v>
+        <v>262.80130469377366</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.38243027531917</v>
+        <v>254.83762879396232</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.92102838311172</v>
+        <v>238.91027699433968</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.22862964458338</v>
+        <v>249.52851152742147</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.07482901384751</v>
+        <v>244.21939426088053</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.7672277523759</v>
+        <v>233.6011597277988</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.36398784064838</v>
+        <v>212.63560745786754</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.56818303884589</v>
+        <v>289.58468630384186</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.8437335341209</v>
+        <v>282.26806800442358</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>234.49493296142313</v>
+        <v>299.71614147530767</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.25264741853576</v>
+        <v>310.90968136156243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.76650444073388</v>
+        <v>317.9571340739484</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>251.30493815951689</v>
+        <v>321.20159462572337</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.68963700316792</v>
+        <v>311.46821297039844</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.61276956560189</v>
+        <v>304.97929186684848</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.53590212803584</v>
+        <v>298.49037076329847</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.38216725290388</v>
+        <v>285.51252855619856</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.33376291634798</v>
+        <v>259.887964670727</v>
       </c>
     </row>
   </sheetData>
@@ -5875,9 +5875,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5954,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.85675054428873</v>
+        <v>161.48221744547257</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.06853005730292</v>
+        <v>153.87000691471084</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.5425794334721</v>
+        <v>150.67647846931115</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.37082858279371</v>
+        <v>146.3216669528571</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.42807886635316</v>
+        <v>147.77327079167512</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.29071308792732</v>
+        <v>154.02678012930315</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>236.86356864790213</v>
+        <v>167.1318595861523</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.7097448672078</v>
+        <v>173.3737560930698</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.40744634171699</v>
+        <v>180.92209605492354</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>243.10938050878869</v>
+        <v>171.53892884080383</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.58772074771511</v>
+        <v>167.64282413741628</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.78086774198482</v>
+        <v>152.2558234459452</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.80661291852812</v>
+        <v>148.04036589801763</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.30993471504269</v>
+        <v>126.52179059137922</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.55145571317195</v>
+        <v>131.63143610401863</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16357631652738</v>
+        <v>119.36248045832868</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.58002268475693</v>
+        <v>116.12830710544213</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.70774856452769</v>
+        <v>115.51282707778329</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>165.86374686169802</v>
+        <v>117.03410790086457</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.38652296610698</v>
+        <v>132.92626672824434</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.33009447169755</v>
+        <v>161.11060686273515</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.02562142973073</v>
+        <v>160.8957694945901</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.91253176013262</v>
+        <v>152.34872609162954</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.38763930944239</v>
+        <v>144.92232085223651</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.41391301707429</v>
+        <v>153.40810657319892</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.16510355443776</v>
+        <v>146.17650656897527</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.8654504617985</v>
+        <v>143.1426545458456</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.00228715365401</v>
+        <v>139.00558360521421</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.95667492303551</v>
+        <v>140.38460725209134</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.37617743353096</v>
+        <v>146.32544112283799</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.02039021550704</v>
+        <v>158.7752666068447</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>233.42425762384741</v>
+        <v>164.70506828841633</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>243.58707402463116</v>
+        <v>171.87599125217739</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.95391148334923</v>
+        <v>162.96198239876364</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.70833471032935</v>
+        <v>159.26068293054544</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>204.99182435488558</v>
+        <v>144.64303227364795</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.31628227260171</v>
+        <v>140.63834760311673</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.34443797929055</v>
+        <v>120.19570106181025</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.22388292751333</v>
+        <v>125.0498642988177</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.705397500701</v>
+        <v>113.39435643541223</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.35102155051905</v>
+        <v>110.32189175017002</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.5223611363013</v>
+        <v>109.73718572389411</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>157.57055951861309</v>
+        <v>111.18240250582134</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.96719681780164</v>
+        <v>126.27995339183211</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>216.91358974811266</v>
+        <v>153.0550765195984</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>216.62434035824418</v>
+        <v>152.8509810198606</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.11690517212597</v>
+        <v>144.73128978704804</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.11825734397027</v>
+        <v>137.67620480962469</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>240.29958807150319</v>
+        <v>169.55632831774619</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.97195656016808</v>
+        <v>161.56350726044639</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>224.2197084051457</v>
+        <v>158.21030239277673</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.7393700119334</v>
+        <v>153.63775030049996</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.89948280967081</v>
+        <v>155.16193433125886</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>229.20524874232368</v>
+        <v>161.72811913576831</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>248.70674708029725</v>
+        <v>175.48845256545991</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>257.99523211056822</v>
+        <v>182.0424438977233</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>269.22781865880285</v>
+        <v>189.96820085766973</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.26484953422815</v>
+        <v>180.11587528284406</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.46710678510087</v>
+        <v>176.0249653442871</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.56991112908406</v>
+        <v>159.86861461824247</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.29694356445452</v>
+        <v>155.4423841929185</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.27543145079483</v>
+        <v>132.84788012094819</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.87902849883054</v>
+        <v>138.21300790921958</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.62175513235374</v>
+        <v>125.33060448124512</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.80902381899477</v>
+        <v>121.93472246071426</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.89313599275408</v>
+        <v>121.28846843167244</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.15693420478294</v>
+        <v>122.88581329590782</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.80584911441235</v>
+        <v>139.57258006465653</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.74659919528241</v>
+        <v>169.16613720587191</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.42690250121726</v>
+        <v>168.9405579693196</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.70815834813925</v>
+        <v>159.96616239621102</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.65702127491451</v>
+        <v>152.16843689484833</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.97107548985986</v>
+        <v>145.3339957009253</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.26167705157266</v>
+        <v>138.48300622323976</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.18832149012491</v>
+        <v>135.60883062238005</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.63374572451437</v>
+        <v>131.68950025757138</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.48527097971785</v>
+        <v>132.9959437125076</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.4616417791346</v>
+        <v>138.62410211637285</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.17721178311191</v>
+        <v>150.41867362753709</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.13877038048702</v>
+        <v>156.03638048376283</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>162.8298864494312</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>218.79844245790983</v>
+        <v>154.38503595672347</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.82894867294362</v>
+        <v>150.87854172367466</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.20278096778634</v>
+        <v>137.0302411013507</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.82595162667531</v>
+        <v>133.23632930821586</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.37894124353841</v>
+        <v>113.86961153224129</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.89631014185477</v>
+        <v>118.46829249361679</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.24721868487464</v>
+        <v>107.42623241249581</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.12202041628123</v>
+        <v>104.51547639489793</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.33697370807494</v>
+        <v>103.96154437000496</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.2773721755282</v>
+        <v>105.33069711077812</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.54787066949629</v>
+        <v>119.63364005541989</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.49708502452779</v>
+        <v>144.99954617646165</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.22305928675766</v>
+        <v>144.8061925451311</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.32127858411937</v>
+        <v>137.1138534824666</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.84887537849815</v>
+        <v>130.43008876701285</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>251.74242559871766</v>
+        <v>177.63043919001984</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>239.87538306303324</v>
+        <v>169.25700760618193</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.89683737681932</v>
+        <v>165.7441263162423</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>228.1079114410731</v>
+        <v>160.95383364814282</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.3708867529885</v>
+        <v>162.55059787084264</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>240.11978439672009</v>
+        <v>169.4294581422335</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>260.54992551269237</v>
+        <v>183.84504554476754</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>270.28071935392859</v>
+        <v>190.7111317023768</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>199.01430566041594</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>267.42031855966758</v>
+        <v>188.69282172488425</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.34649282248665</v>
+        <v>184.40710655115791</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.35895451618333</v>
+        <v>167.48140579053975</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.78727421038093</v>
+        <v>162.84440248781939</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.24092818654697</v>
+        <v>139.17396965051714</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>205.20660128448915</v>
+        <v>144.79457971442051</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.0799339481801</v>
+        <v>131.29872850416155</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.03802495323265</v>
+        <v>127.74113781598638</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.07852342098047</v>
+        <v>127.06410978556163</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.45012154786781</v>
+        <v>128.73751869095102</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.2251752627177</v>
+        <v>146.21889340106875</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>251.16310391886731</v>
+        <v>177.22166754900869</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>250.82818357270381</v>
+        <v>176.9853464440491</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.50378493614591</v>
+        <v>167.58359870079252</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.92640324038666</v>
+        <v>159.4145529374602</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6473,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6552,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.153340341509065</v>
+        <v>58.990191850454238</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.666155234192495</v>
+        <v>59.645638426570393</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.771350108857746</v>
+        <v>58.501956829058948</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.281489268343407</v>
+        <v>65.544657611615818</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.666155234192495</v>
+        <v>59.645638426570393</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.640525448825628</v>
+        <v>58.334745274338083</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.102080770775324</v>
+        <v>56.368405545989603</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.025191414674723</v>
+        <v>52.435726089292658</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.538006307358167</v>
+        <v>53.091172665408827</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.563636092725019</v>
+        <v>54.402065817641123</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.05082120004159</v>
+        <v>53.746619241524968</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.589265878091894</v>
+        <v>55.712958969873448</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.127710556142198</v>
+        <v>57.679298698221928</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.845673324433605</v>
+        <v>56.040682257931522</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.332847472482868</v>
+        <v>56.663356505241872</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.482782603414854</v>
+        <v>55.576858987605995</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.717414804926236</v>
+        <v>62.267424731035028</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.332847472482868</v>
+        <v>56.663356505241872</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.358499176384349</v>
+        <v>55.418008010621179</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.89697673223656</v>
+        <v>53.549985268690129</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.973931843940981</v>
+        <v>49.813939784828023</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.461105991990252</v>
+        <v>50.43661403213838</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.922628436138034</v>
+        <v>52.304636774069422</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.435454288088771</v>
+        <v>51.681962526759065</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.948280140039508</v>
+        <v>51.059288279448722</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.409802584187297</v>
+        <v>52.927311021379772</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.871325028335079</v>
+        <v>54.795333763310822</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.461007358584524</v>
+        <v>61.939701442976961</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.999462995902121</v>
+        <v>62.627920347898915</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.059917614300637</v>
+        <v>61.4270546705119</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.845563731760571</v>
+        <v>68.821890492196616</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.999462995902121</v>
+        <v>62.627920347898915</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.922551721266913</v>
+        <v>61.251482538054987</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.307184809314087</v>
+        <v>59.186825823289084</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.076450985408464</v>
+        <v>55.057512393757293</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.614906622726075</v>
+        <v>55.745731298679274</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.230273534678886</v>
+        <v>57.810388013445156</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.691817897361275</v>
+        <v>57.122169108523188</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.153362260043664</v>
+        <v>56.433950203601221</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.76872917199649</v>
+        <v>58.498606918367123</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.538006307358152</v>
+        <v>53.091172665408813</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.999539710773242</v>
+        <v>53.681074583913357</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.194215097971977</v>
+        <v>52.651761146153056</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.153340341509065</v>
+        <v>58.990191850454238</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.999539710773242</v>
+        <v>53.681074583913357</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.076472903943063</v>
+        <v>52.501270746904275</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.691872693697796</v>
+        <v>50.731564991390648</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.922672273207255</v>
+        <v>47.192153480363395</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.384205676622351</v>
+        <v>47.782055398867946</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.768805886867618</v>
+        <v>49.551761154381566</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.307272483452515</v>
+        <v>48.961859235877014</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.845739080037433</v>
+        <v>48.371957317372477</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.230339290282707</v>
+        <v>50.141663072886104</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.614939500527981</v>
+        <v>51.911368828399738</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.76867437565997</v>
+        <v>64.88921103549967</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.332770757611748</v>
+        <v>65.610202269227443</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.348485119743529</v>
+        <v>64.35215251196486</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.409638195177742</v>
+        <v>72.099123372777399</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.332770757611748</v>
+        <v>65.610202269227443</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.204577993708199</v>
+        <v>64.168219801771897</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.512288847852865</v>
+        <v>62.005246100588572</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.127710556142198</v>
+        <v>57.679298698221928</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.691806938093983</v>
+        <v>58.400289931949708</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.384096083949316</v>
+        <v>60.563263633133033</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.819999701997524</v>
+        <v>59.842272399405239</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.255903320045746</v>
+        <v>59.121281165677466</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.948192465901087</v>
+        <v>61.284254866860806</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.640481611756421</v>
+        <v>63.447228568044125</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +7096,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,509 +7175,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.74242559871766</v>
+        <v>321.76076255982429</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.3819261490232</v>
+        <v>313.6311866715817</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.56144423926432</v>
+        <v>310.02623050294284</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.54992551269237</v>
+        <v>333.01793497256415</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.28071935392859</v>
+        <v>345.45520151284711</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>360.49561686388705</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.40722715637099</v>
+        <v>353.28570452660932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.22770906612982</v>
+        <v>356.89066069524819</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.04819097588876</v>
+        <v>360.49561686388705</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.76626333685317</v>
+        <v>346.07579218933159</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.12529951733541</v>
+        <v>338.86587985205381</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.66385378805876</v>
+        <v>328.05101134613722</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.48433569781764</v>
+        <v>331.65596751477608</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.30481760757652</v>
+        <v>335.26092368341494</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.20240805878211</v>
+        <v>317.23614284022062</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>225.92640324038666</v>
+        <v>288.76440518969667</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>239.15530431878176</v>
+        <v>305.67272443183305</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.11282984157199</v>
+        <v>297.94962733800259</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.43337202730109</v>
+        <v>294.52491897779572</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.52242923705774</v>
+        <v>316.36703822393588</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.76668338623216</v>
+        <v>328.18244143720472</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.94578142709435</v>
+        <v>342.47083602069273</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.58686579855242</v>
+        <v>335.62141930027883</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.26632361282333</v>
+        <v>339.04612766048575</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.94578142709435</v>
+        <v>342.47083602069273</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.2279501700105</v>
+        <v>328.77200257986499</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.15120328438488</v>
+        <v>308.22375241862346</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.86903454146864</v>
+        <v>321.92258585945115</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.83066109865578</v>
+        <v>311.64846077883033</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.51011891292674</v>
+        <v>315.07316913903725</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.18957672719768</v>
+        <v>318.49787749924417</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.79228765584298</v>
+        <v>301.37433569820956</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.63008307836731</v>
+        <v>274.32618493021181</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.32954687865356</v>
+        <v>337.84880068781553</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.65102245647438</v>
+        <v>329.31274600516082</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.68951645122755</v>
+        <v>325.52754202809001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.577421788327</v>
+        <v>349.66883172119236</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.79475532162502</v>
+        <v>362.72796158848945</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.15060052468317</v>
+        <v>378.52039770708143</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.22758851418951</v>
+        <v>370.94998975293976</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>293.18909451943637</v>
+        <v>374.73519373001062</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.15060052468317</v>
+        <v>378.52039770708143</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.30457650369584</v>
+        <v>363.37958179879814</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.5355404722149</v>
+        <v>340.6683579363733</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.38156449320218</v>
+        <v>355.80917384465653</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.49704647746171</v>
+        <v>344.4535619134441</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.45855248270851</v>
+        <v>348.23876589051486</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.42005848795537</v>
+        <v>352.02396986758572</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.61252846172124</v>
+        <v>333.09794998223168</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>237.22272340240605</v>
+        <v>303.20262544918154</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.56818303884589</v>
+        <v>289.58468630384186</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.8437335341209</v>
+        <v>282.26806800442358</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.49493296142316</v>
+        <v>299.71614147530772</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.25264741853573</v>
+        <v>310.90968136156238</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.76650444073388</v>
+        <v>317.9571340739484</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.30493815951687</v>
+        <v>321.20159462572337</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.68963700316786</v>
+        <v>311.46821297039838</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.61276956560187</v>
+        <v>304.97929186684843</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925286</v>
+        <v>295.24591021152349</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.53590212803584</v>
+        <v>298.49037076329847</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>223.38216725290391</v>
+        <v>285.51252855619856</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.33376291634804</v>
+        <v>259.887964670727</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.91666815858946</v>
+        <v>353.93683881580677</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.92011876392553</v>
+        <v>344.99430533873993</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.81758866319075</v>
+        <v>341.02885355323718</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>286.60491806396163</v>
+        <v>366.31972846982057</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.30879128932145</v>
+        <v>380.00072166413179</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.25301007347764</v>
+        <v>396.54517855027581</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>304.04794987200813</v>
+        <v>388.61427497927031</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>307.15047997274286</v>
+        <v>392.57972676477306</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.25301007347764</v>
+        <v>396.54517855027581</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.84288967053857</v>
+        <v>380.68337140826475</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.22770906612988</v>
+        <v>356.89066069524824</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.63782946906895</v>
+        <v>372.75246783725919</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.33023916686466</v>
+        <v>360.85611248075094</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.43276926759938</v>
+        <v>364.82156426625369</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.53529936833422</v>
+        <v>368.7870160517565</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.02264886466031</v>
+        <v>348.95975712424269</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.51904356442537</v>
+        <v>317.64084570866635</v>
       </c>
     </row>
   </sheetData>
@@ -7693,9 +7693,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,509 +7772,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.97107548985986</v>
+        <v>263.25880573076529</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.76703048556442</v>
+        <v>256.60733454947592</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.45936346848899</v>
+        <v>253.65782495695325</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.17721178311191</v>
+        <v>272.46921952300698</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.13877038048702</v>
+        <v>282.64516487414761</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>294.95095925227122</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.15136767339442</v>
+        <v>289.05194006722576</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.76670170754531</v>
+        <v>294.95095925227122</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.53603363924353</v>
+        <v>283.15292088218035</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.92069960509261</v>
+        <v>277.25390169713495</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.99769855386626</v>
+        <v>268.40537291956679</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.30536557094169</v>
+        <v>271.35488251208949</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.61303258801715</v>
+        <v>274.30439210461225</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.07469750263988</v>
+        <v>259.55684414199868</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.84887537849815</v>
+        <v>236.26178606429724</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.67252171536686</v>
+        <v>250.095865444227</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.72867896128619</v>
+        <v>243.77696782200212</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.53639529506452</v>
+        <v>240.97493370910558</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.51835119395633</v>
+        <v>258.84575854685664</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.08183186146266</v>
+        <v>268.51290663044023</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.22836662216804</v>
+        <v>280.20341128965765</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.84379928972467</v>
+        <v>274.59934306386447</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.0360829559464</v>
+        <v>277.40137717676112</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.22836662216804</v>
+        <v>280.20341128965765</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.45923195728133</v>
+        <v>268.99527483807134</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.30552995995126</v>
+        <v>252.1830701606919</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.07466462483796</v>
+        <v>263.39120661227821</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.49781362617293</v>
+        <v>254.98510427358846</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.6900972923946</v>
+        <v>257.78713838648503</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8823809586163</v>
+        <v>260.58917249938162</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.92096262750786</v>
+        <v>246.57900193489871</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.60643160957324</v>
+        <v>224.44869676108237</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.26962926435289</v>
+        <v>276.42174601730358</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.80538200984265</v>
+        <v>269.43770127694972</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.38233164191345</v>
+        <v>266.34071620480091</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.83607237226752</v>
+        <v>286.09268049915732</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.1957088995114</v>
+        <v>296.77742311785499</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.30503679292258</v>
+        <v>309.69850721488478</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.45893605706416</v>
+        <v>303.50453707058711</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>239.88198642499339</v>
+        <v>306.60152214273592</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.30503679292258</v>
+        <v>309.69850721488478</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.61283532120572</v>
+        <v>297.31056692628943</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.07453311363031</v>
+        <v>278.72865649339627</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.76673458534725</v>
+        <v>291.11659678199169</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.49758348155956</v>
+        <v>281.82564156554514</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>222.92063384948878</v>
+        <v>284.92262663769395</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.343684217418</v>
+        <v>288.01961170984282</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.2284323777719</v>
+        <v>272.53468634909865</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.09131914742306</v>
+        <v>248.07487536751211</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.37396794087388</v>
+        <v>236.93292515768874</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.69032743700797</v>
+        <v>230.94660109452835</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.61342712164011</v>
+        <v>228.29204246125795</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.85949060480073</v>
+        <v>245.22229757070627</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.02489334243833</v>
+        <v>254.38064838673284</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.53623090605498</v>
+        <v>260.14674606050323</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.61313122142292</v>
+        <v>262.80130469377366</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.69003153679077</v>
+        <v>265.45586332704409</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.38243027531917</v>
+        <v>254.83762879396232</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.92102838311172</v>
+        <v>238.91027699433968</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.22862964458338</v>
+        <v>249.52851152742147</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.99792869847963</v>
+        <v>241.56483562761014</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.07482901384751</v>
+        <v>244.21939426088053</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.15172932921541</v>
+        <v>246.87395289415099</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.7672277523759</v>
+        <v>233.6011597277988</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.36398784064838</v>
+        <v>212.63560745786754</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.56818303884589</v>
+        <v>289.58468630384186</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.8437335341209</v>
+        <v>282.26806800442358</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.30529981533792</v>
+        <v>279.0236074526486</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>234.49493296142313</v>
+        <v>299.71614147530767</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.25264741853576</v>
+        <v>310.90968136156243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.76650444073388</v>
+        <v>317.9571340739484</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>251.30493815951689</v>
+        <v>321.20159462572337</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.84337187829988</v>
+        <v>324.44605517749835</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.68963700316792</v>
+        <v>311.46821297039844</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.45903469046988</v>
+        <v>292.00144965974852</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.61276956560189</v>
+        <v>304.97929186684848</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.99746840925292</v>
+        <v>295.24591021152355</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.53590212803584</v>
+        <v>298.49037076329847</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.07433584681888</v>
+        <v>301.73483131507345</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.38216725290388</v>
+        <v>285.51252855619856</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.33376291634798</v>
+        <v>259.887964670727</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677C3FB-23A6-4EE0-94E8-365E518E025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8962CEA-EB44-4461-92E1-9103F6820FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,12 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -3456,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4055,7 +4055,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,99 +4766,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.76076255982429</v>
+        <v>216.95866996279787</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>313.6311866715817</v>
+        <v>211.47701347353964</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>333.01793497256415</v>
+        <v>224.54921995646231</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>345.45520151284711</v>
+        <v>232.93549050444716</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.49561686388705</v>
+        <v>243.07702698108008</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>353.28570452660932</v>
+        <v>238.21548644145847</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>356.89066069524819</v>
+        <v>240.64625671126925</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.49561686388705</v>
+        <v>243.07702698108008</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>346.07579218933159</v>
+        <v>233.35394590183685</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>338.86587985205381</v>
+        <v>228.49240536221527</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>331.65596751477608</v>
+        <v>223.63086482259365</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.23614284022062</v>
+        <v>213.90778374335048</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.76440518969667</v>
+        <v>194.70969916944634</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4867,99 +4867,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.67272443183305</v>
+        <v>206.11073646465798</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.94962733800259</v>
+        <v>200.90316279986263</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.36703822393588</v>
+        <v>213.32175895863918</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.18244143720472</v>
+        <v>221.28871597922478</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>342.47083602069273</v>
+        <v>230.92317563202607</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.62141930027883</v>
+        <v>226.30471211938556</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>339.04612766048575</v>
+        <v>228.61394387570579</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>342.47083602069273</v>
+        <v>230.92317563202607</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.77200257986499</v>
+        <v>221.68624860674501</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>308.22375241862346</v>
+        <v>207.83085806882346</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.92258585945115</v>
+        <v>217.06778509410449</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>315.07316913903725</v>
+        <v>212.44932158146395</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.37433569820956</v>
+        <v>203.21239455618294</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.32618493021181</v>
+        <v>184.974214210974</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4968,99 +4968,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>337.84880068781553</v>
+        <v>227.80660346093779</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>329.31274600516082</v>
+        <v>222.05086414721666</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>349.66883172119236</v>
+        <v>235.77668095428544</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>362.72796158848945</v>
+        <v>244.58226502966954</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>378.52039770708143</v>
+        <v>255.23087833013409</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>370.94998975293976</v>
+        <v>250.12626076353141</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>374.73519373001062</v>
+        <v>252.67856954683273</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>378.52039770708143</v>
+        <v>255.23087833013409</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>363.37958179879814</v>
+        <v>245.02164319692872</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>340.6683579363733</v>
+        <v>229.70779049712067</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>355.80917384465653</v>
+        <v>239.91702563032601</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>348.23876589051486</v>
+        <v>234.81240806372332</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>333.09794998223168</v>
+        <v>224.60317293051799</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.20262544918154</v>
+        <v>204.44518412791868</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5069,99 +5069,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>289.58468630384186</v>
+        <v>195.26280296651808</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.26806800442358</v>
+        <v>190.3293121261857</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>299.71614147530772</v>
+        <v>202.09429796081611</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.90968136156238</v>
+        <v>209.64194145400242</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.9571340739484</v>
+        <v>214.39393779731262</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.20159462572337</v>
+        <v>216.58163104014233</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.46821297039838</v>
+        <v>210.01855131165317</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>304.97929186684843</v>
+        <v>205.64316482599372</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>298.49037076329847</v>
+        <v>201.26777834033427</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.51252855619856</v>
+        <v>192.51700536901544</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.887964670727</v>
+        <v>175.23872925250171</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5170,99 +5170,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>353.93683881580677</v>
+        <v>238.65453695907769</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.99430533873993</v>
+        <v>232.62471482089362</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>366.31972846982057</v>
+        <v>247.00414195210854</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>380.00072166413179</v>
+        <v>256.22903955489187</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.54517855027581</v>
+        <v>267.38472967918813</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>388.61427497927031</v>
+        <v>262.03703508560437</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>392.57972676477306</v>
+        <v>264.71088238239622</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.54517855027581</v>
+        <v>267.38472967918813</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>380.68337140826475</v>
+        <v>256.68934049202056</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>356.89066069524824</v>
+        <v>240.6462567112693</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>372.75246783725919</v>
+        <v>251.34164589843678</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>364.82156426625369</v>
+        <v>245.99395130485303</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>348.95975712424269</v>
+        <v>235.29856211768552</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.64084570866635</v>
+        <v>214.18066908639099</v>
       </c>
     </row>
   </sheetData>
@@ -5363,99 +5363,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.25880573076529</v>
+        <v>177.51163906047097</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.60733454947592</v>
+        <v>173.02664738744153</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.46921952300698</v>
+        <v>183.72208905528731</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>282.64516487414761</v>
+        <v>190.58358314000222</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>294.95095925227122</v>
+        <v>198.88120389361094</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>289.05194006722576</v>
+        <v>194.90357981573874</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>294.95095925227122</v>
+        <v>198.88120389361094</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>283.15292088218035</v>
+        <v>190.92595573786653</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>277.25390169713495</v>
+        <v>186.9483316599943</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>271.35488251208949</v>
+        <v>182.97070758212206</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>259.55684414199868</v>
+        <v>175.01545942637765</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.26178606429724</v>
+        <v>159.30793568409243</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5464,99 +5464,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.095865444227</v>
+        <v>168.63605710744741</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.77696782200212</v>
+        <v>164.37531501806941</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.84575854685664</v>
+        <v>174.53598460252294</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.51290663044023</v>
+        <v>181.05440398300209</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>280.20341128965765</v>
+        <v>188.93714369893041</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.59934306386447</v>
+        <v>185.15840082495177</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>277.40137717676112</v>
+        <v>187.04777226194111</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>280.20341128965765</v>
+        <v>188.93714369893041</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.99527483807134</v>
+        <v>181.37965795097318</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.1830701606919</v>
+        <v>170.04342932903737</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.39120661227821</v>
+        <v>177.6009150769946</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>257.78713838648503</v>
+        <v>173.82217220301595</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.57900193489871</v>
+        <v>166.26468645505875</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.44869676108237</v>
+        <v>151.34253889988781</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5565,99 +5565,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>276.42174601730358</v>
+        <v>186.38722101349452</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>269.43770127694972</v>
+        <v>181.67797975681361</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>286.09268049915732</v>
+        <v>192.90819350805168</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>296.77742311785499</v>
+        <v>200.11276229700235</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.69850721488478</v>
+        <v>208.8252640882915</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>303.50453707058711</v>
+        <v>204.64875880652571</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>306.60152214273592</v>
+        <v>206.73701144740861</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.69850721488478</v>
+        <v>208.8252640882915</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>297.31056692628943</v>
+        <v>200.47225352475985</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>278.72865649339627</v>
+        <v>187.94273767946234</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>291.11659678199169</v>
+        <v>196.29574824299402</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>284.92262663769395</v>
+        <v>192.11924296122817</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.53468634909865</v>
+        <v>183.76623239769654</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.07487536751211</v>
+        <v>167.27333246829707</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5666,99 +5666,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.93292515768874</v>
+        <v>159.76047515442386</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.94660109452835</v>
+        <v>155.72398264869736</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.22229757070627</v>
+        <v>165.34988014975858</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.38064838673284</v>
+        <v>171.52522482600199</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.14674606050323</v>
+        <v>175.41322183416489</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>262.80130469377366</v>
+        <v>177.20315266920738</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.83762879396232</v>
+        <v>171.83336016407986</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.91027699433968</v>
+        <v>161.09377515382488</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.52851152742147</v>
+        <v>168.2534984939949</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>244.21939426088053</v>
+        <v>164.67363682390985</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.6011597277988</v>
+        <v>157.51391348373988</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.63560745786754</v>
+        <v>143.3771421156832</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,99 +5767,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>289.58468630384186</v>
+        <v>195.26280296651808</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>282.26806800442358</v>
+        <v>190.3293121261857</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>299.71614147530767</v>
+        <v>202.09429796081608</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>310.90968136156243</v>
+        <v>209.64194145400248</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>317.9571340739484</v>
+        <v>214.39393779731262</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>321.20159462572337</v>
+        <v>216.58163104014236</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>311.46821297039844</v>
+        <v>210.0185513116532</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>304.97929186684848</v>
+        <v>205.64316482599375</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>298.49037076329847</v>
+        <v>201.26777834033427</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>285.51252855619856</v>
+        <v>192.51700536901541</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>259.887964670727</v>
+        <v>175.23872925250168</v>
       </c>
     </row>
   </sheetData>
@@ -7181,99 +7181,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.76076255982429</v>
+        <v>216.95866996279787</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>313.6311866715817</v>
+        <v>211.47701347353964</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.02623050294284</v>
+        <v>209.04624320372886</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>333.01793497256415</v>
+        <v>224.54921995646231</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>345.45520151284711</v>
+        <v>232.93549050444716</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.49561686388705</v>
+        <v>243.07702698108008</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>353.28570452660932</v>
+        <v>238.21548644145847</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>356.89066069524819</v>
+        <v>240.64625671126925</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.49561686388705</v>
+        <v>243.07702698108008</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>346.07579218933159</v>
+        <v>233.35394590183685</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>338.86587985205381</v>
+        <v>228.49240536221527</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.05101134613722</v>
+        <v>221.20009455278287</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>331.65596751477608</v>
+        <v>223.63086482259365</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.26092368341494</v>
+        <v>226.06163509240446</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.23614284022062</v>
+        <v>213.90778374335048</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.76440518969667</v>
+        <v>194.70969916944634</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7282,99 +7282,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.67272443183305</v>
+        <v>206.11073646465798</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.94962733800259</v>
+        <v>200.90316279986263</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>294.52491897779572</v>
+        <v>198.5939310435424</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.36703822393588</v>
+        <v>213.32175895863918</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.18244143720472</v>
+        <v>221.28871597922478</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>342.47083602069273</v>
+        <v>230.92317563202607</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.62141930027883</v>
+        <v>226.30471211938556</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>339.04612766048575</v>
+        <v>228.61394387570579</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>342.47083602069273</v>
+        <v>230.92317563202607</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.77200257986499</v>
+        <v>221.68624860674501</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>308.22375241862346</v>
+        <v>207.83085806882346</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.92258585945115</v>
+        <v>217.06778509410449</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.64846077883033</v>
+        <v>210.14008982514369</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>315.07316913903725</v>
+        <v>212.44932158146395</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>318.49787749924417</v>
+        <v>214.75855333778424</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.37433569820956</v>
+        <v>203.21239455618294</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.32618493021181</v>
+        <v>184.974214210974</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7383,99 +7383,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>337.84880068781553</v>
+        <v>227.80660346093779</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>329.31274600516082</v>
+        <v>222.05086414721666</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>325.52754202809001</v>
+        <v>219.4985553639153</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>349.66883172119236</v>
+        <v>235.77668095428544</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>362.72796158848945</v>
+        <v>244.58226502966954</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>378.52039770708143</v>
+        <v>255.23087833013409</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>370.94998975293976</v>
+        <v>250.12626076353141</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>374.73519373001062</v>
+        <v>252.67856954683273</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>378.52039770708143</v>
+        <v>255.23087833013409</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>363.37958179879814</v>
+        <v>245.02164319692872</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>340.6683579363733</v>
+        <v>229.70779049712067</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>355.80917384465653</v>
+        <v>239.91702563032601</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.4535619134441</v>
+        <v>232.26009928042203</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>348.23876589051486</v>
+        <v>234.81240806372332</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>352.02396986758572</v>
+        <v>237.36471684702471</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>333.09794998223168</v>
+        <v>224.60317293051799</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.20262544918154</v>
+        <v>204.44518412791868</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -7484,99 +7484,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>289.58468630384186</v>
+        <v>195.26280296651808</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.26806800442358</v>
+        <v>190.3293121261857</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>299.71614147530772</v>
+        <v>202.09429796081611</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>310.90968136156238</v>
+        <v>209.64194145400242</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.9571340739484</v>
+        <v>214.39393779731262</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.20159462572337</v>
+        <v>216.58163104014233</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.46821297039838</v>
+        <v>210.01855131165317</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>304.97929186684843</v>
+        <v>205.64316482599372</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152349</v>
+        <v>199.08008509750456</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>298.49037076329847</v>
+        <v>201.26777834033427</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.51252855619856</v>
+        <v>192.51700536901544</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.887964670727</v>
+        <v>175.23872925250171</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -7585,99 +7585,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>353.93683881580677</v>
+        <v>238.65453695907769</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.99430533873993</v>
+        <v>232.62471482089362</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>341.02885355323718</v>
+        <v>229.95086752410177</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>366.31972846982057</v>
+        <v>247.00414195210854</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>380.00072166413179</v>
+        <v>256.22903955489187</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.54517855027581</v>
+        <v>267.38472967918813</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>388.61427497927031</v>
+        <v>262.03703508560437</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>392.57972676477306</v>
+        <v>264.71088238239622</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.54517855027581</v>
+        <v>267.38472967918813</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>380.68337140826475</v>
+        <v>256.68934049202056</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>356.89066069524824</v>
+        <v>240.6462567112693</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>372.75246783725919</v>
+        <v>251.34164589843678</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>360.85611248075094</v>
+        <v>243.32010400806115</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>364.82156426625369</v>
+        <v>245.99395130485303</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>368.7870160517565</v>
+        <v>248.66779860164493</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>348.95975712424269</v>
+        <v>235.29856211768552</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>317.64084570866635</v>
+        <v>214.18066908639099</v>
       </c>
     </row>
   </sheetData>
@@ -7778,99 +7778,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.25880573076529</v>
+        <v>177.51163906047097</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.60733454947592</v>
+        <v>173.02664738744153</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.65782495695325</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.46921952300698</v>
+        <v>183.72208905528731</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>282.64516487414761</v>
+        <v>190.58358314000222</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>294.95095925227122</v>
+        <v>198.88120389361094</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>289.05194006722576</v>
+        <v>194.90357981573874</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>294.95095925227122</v>
+        <v>198.88120389361094</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>283.15292088218035</v>
+        <v>190.92595573786653</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>277.25390169713495</v>
+        <v>186.9483316599943</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.40537291956679</v>
+        <v>180.98189554318597</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>271.35488251208949</v>
+        <v>182.97070758212206</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.30439210461225</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>259.55684414199868</v>
+        <v>175.01545942637765</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.26178606429724</v>
+        <v>159.30793568409243</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7879,99 +7879,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.095865444227</v>
+        <v>168.63605710744741</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.77696782200212</v>
+        <v>164.37531501806941</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.97493370910558</v>
+        <v>162.48594358108014</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.84575854685664</v>
+        <v>174.53598460252294</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.51290663044023</v>
+        <v>181.05440398300209</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>280.20341128965765</v>
+        <v>188.93714369893041</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.59934306386447</v>
+        <v>185.15840082495177</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>277.40137717676112</v>
+        <v>187.04777226194111</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>280.20341128965765</v>
+        <v>188.93714369893041</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.99527483807134</v>
+        <v>181.37965795097318</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.1830701606919</v>
+        <v>170.04342932903737</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.39120661227821</v>
+        <v>177.6009150769946</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.98510427358846</v>
+        <v>171.93280076602667</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>257.78713838648503</v>
+        <v>173.82217220301595</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.58917249938162</v>
+        <v>175.71154364000526</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.57900193489871</v>
+        <v>166.26468645505875</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.44869676108237</v>
+        <v>151.34253889988781</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7980,99 +7980,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>276.42174601730358</v>
+        <v>186.38722101349452</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>269.43770127694972</v>
+        <v>181.67797975681361</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>266.34071620480091</v>
+        <v>179.58972711593071</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>286.09268049915732</v>
+        <v>192.90819350805168</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>296.77742311785499</v>
+        <v>200.11276229700235</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.69850721488478</v>
+        <v>208.8252640882915</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>303.50453707058711</v>
+        <v>204.64875880652571</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>306.60152214273592</v>
+        <v>206.73701144740861</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.69850721488478</v>
+        <v>208.8252640882915</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>297.31056692628943</v>
+        <v>200.47225352475985</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>278.72865649339627</v>
+        <v>187.94273767946234</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>291.11659678199169</v>
+        <v>196.29574824299402</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.82564156554514</v>
+        <v>190.03099032034527</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>284.92262663769395</v>
+        <v>192.11924296122817</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>288.01961170984282</v>
+        <v>194.20749560211109</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.53468634909865</v>
+        <v>183.76623239769654</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.07487536751211</v>
+        <v>167.27333246829707</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -8081,99 +8081,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>236.93292515768874</v>
+        <v>159.76047515442386</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.94660109452835</v>
+        <v>155.72398264869736</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.29204246125795</v>
+        <v>153.93405181365489</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.22229757070627</v>
+        <v>165.34988014975858</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.38064838673284</v>
+        <v>171.52522482600199</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>260.14674606050323</v>
+        <v>175.41322183416489</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>262.80130469377366</v>
+        <v>177.20315266920738</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.45586332704409</v>
+        <v>178.99308350424985</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>254.83762879396232</v>
+        <v>171.83336016407986</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.91027699433968</v>
+        <v>161.09377515382488</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.52851152742147</v>
+        <v>168.2534984939949</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.56483562761014</v>
+        <v>162.88370598886738</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>244.21939426088053</v>
+        <v>164.67363682390985</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.87395289415099</v>
+        <v>166.46356765895237</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.6011597277988</v>
+        <v>157.51391348373988</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.63560745786754</v>
+        <v>143.3771421156832</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -8182,99 +8182,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>289.58468630384186</v>
+        <v>195.26280296651808</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>282.26806800442358</v>
+        <v>190.3293121261857</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>279.0236074526486</v>
+        <v>188.14161888335599</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>299.71614147530767</v>
+        <v>202.09429796081608</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>310.90968136156243</v>
+        <v>209.64194145400248</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>317.9571340739484</v>
+        <v>214.39393779731262</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>321.20159462572337</v>
+        <v>216.58163104014236</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.44605517749835</v>
+        <v>218.76932428297206</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>311.46821297039844</v>
+        <v>210.0185513116532</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.00144965974852</v>
+        <v>196.89239185467486</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>304.97929186684848</v>
+        <v>205.64316482599375</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.24591021152355</v>
+        <v>199.08008509750459</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>298.49037076329847</v>
+        <v>201.26777834033427</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>301.73483131507345</v>
+        <v>203.45547158316401</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>285.51252855619856</v>
+        <v>192.51700536901541</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>259.887964670727</v>
+        <v>175.23872925250168</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8962CEA-EB44-4461-92E1-9103F6820FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B3FB2-1CF0-4639-8850-5338BE8C959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F1" s="1">
         <v>0.1</v>
@@ -4677,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B3FB2-1CF0-4639-8850-5338BE8C959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFE0B2-B511-43C1-BEB4-7AC9773E50A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,373 +162,325 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>33</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>25.9</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>25.8</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>25.8</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>25.6</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>25.6</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>24.83</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>24.83</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>24.83</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>24.5</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>24.5</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>24.83</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>25</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>25.6</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>25.43</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>24</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>22.1</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>21.4</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>24.83</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>25.2</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>25.6</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>29.93</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>32.93</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>29.9</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>31.35</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>27.68</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>26.73</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.51</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>26.54</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>27.59</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>38.19</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>38.43</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>38.24</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>38.43</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>38.47</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>38.43</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>40.51</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>42.93</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.81</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>28.6</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>27</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>26.5</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>27.5</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>28.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>33</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.74</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.79</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.49</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>39.82</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>38.08</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>37.21</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>30</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>29</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>30.22</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>41.7</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>43.82</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>160.65919958920378</v>
+            <v>39.9</v>
           </cell>
           <cell r="C5">
-            <v>153.08578580827373</v>
+            <v>38.24</v>
           </cell>
           <cell r="D5">
-            <v>149.90853364998878</v>
+            <v>35.44</v>
           </cell>
           <cell r="E5">
-            <v>145.57591707050935</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F5">
-            <v>147.02012259700248</v>
+            <v>34.15</v>
           </cell>
           <cell r="G5">
-            <v>153.24176000513495</v>
+            <v>34.03</v>
           </cell>
           <cell r="H5">
-            <v>166.2800474983151</v>
+            <v>34.31</v>
           </cell>
           <cell r="I5">
-            <v>172.49013126223562</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J5">
-            <v>180</v>
+            <v>39.76</v>
           </cell>
           <cell r="K5">
-            <v>170.66465547674832</v>
+            <v>40.39</v>
           </cell>
           <cell r="L5">
-            <v>166.78840784364073</v>
+            <v>40.29</v>
           </cell>
           <cell r="M5">
-            <v>151.47982926281335</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N5">
-            <v>147.28585641387721</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O5">
-            <v>125.87695368914281</v>
+            <v>36.97</v>
           </cell>
           <cell r="P5">
-            <v>130.96055714239867</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q5">
-            <v>118.75413203247857</v>
+            <v>34.5</v>
           </cell>
           <cell r="R5">
-            <v>115.53644211945186</v>
+            <v>34.4</v>
           </cell>
           <cell r="S5">
-            <v>114.92409897621876</v>
+            <v>35.24</v>
           </cell>
           <cell r="T5">
-            <v>116.43762636798357</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U5">
-            <v>132.24878847203055</v>
+            <v>51.02</v>
           </cell>
           <cell r="V5">
-            <v>160.28948297442156</v>
+            <v>51.05</v>
           </cell>
           <cell r="W5">
-            <v>160.07574055650056</v>
+            <v>50.04</v>
           </cell>
           <cell r="X5">
-            <v>151.5722584165089</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y5">
-            <v>144.18370294296994</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -1650,745 +1602,527 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>31.35</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>27.68</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>26.73</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>26.51</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>26.54</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>27.59</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>38.19</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>38.43</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>38.24</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>38</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>38.43</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>38.47</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>38.43</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>40.51</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>42.93</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>41.81</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>28.6</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>27</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.5</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>27.5</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>28.03</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>37.74</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>39.79</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>40.49</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>39.82</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38.08</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>37.21</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>30</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>29</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>30.22</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.7</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>43.82</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>39.9</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>38.24</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>35.44</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>34.15</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>34.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>34.31</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.76</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.39</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>40.29</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>36.97</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>34.5</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>34.4</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>35.24</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>51.02</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>51.05</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>50.04</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>160.65919958920378</v>
-          </cell>
-          <cell r="C5">
-            <v>153.08578580827373</v>
-          </cell>
-          <cell r="D5">
-            <v>149.90853364998878</v>
-          </cell>
-          <cell r="E5">
-            <v>145.57591707050935</v>
-          </cell>
-          <cell r="F5">
-            <v>147.02012259700248</v>
-          </cell>
-          <cell r="G5">
-            <v>153.24176000513495</v>
-          </cell>
-          <cell r="H5">
-            <v>166.2800474983151</v>
-          </cell>
-          <cell r="I5">
-            <v>172.49013126223562</v>
-          </cell>
-          <cell r="J5">
-            <v>180</v>
-          </cell>
-          <cell r="K5">
-            <v>170.66465547674832</v>
-          </cell>
-          <cell r="L5">
-            <v>166.78840784364073</v>
-          </cell>
-          <cell r="M5">
-            <v>151.47982926281335</v>
-          </cell>
-          <cell r="N5">
-            <v>147.28585641387721</v>
-          </cell>
-          <cell r="O5">
-            <v>125.87695368914281</v>
-          </cell>
-          <cell r="P5">
-            <v>130.96055714239867</v>
-          </cell>
-          <cell r="Q5">
-            <v>118.75413203247857</v>
-          </cell>
-          <cell r="R5">
-            <v>115.53644211945186</v>
-          </cell>
-          <cell r="S5">
-            <v>114.92409897621876</v>
-          </cell>
-          <cell r="T5">
-            <v>116.43762636798357</v>
-          </cell>
-          <cell r="U5">
-            <v>132.24878847203055</v>
-          </cell>
-          <cell r="V5">
-            <v>160.28948297442156</v>
-          </cell>
-          <cell r="W5">
-            <v>160.07574055650056</v>
-          </cell>
-          <cell r="X5">
-            <v>151.5722584165089</v>
-          </cell>
-          <cell r="Y5">
-            <v>144.18370294296994</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>35.702044353156396</v>
+            <v>13.5</v>
           </cell>
           <cell r="C2">
-            <v>35.702044353156396</v>
+            <v>14.88</v>
           </cell>
           <cell r="D2">
-            <v>36</v>
+            <v>8.92</v>
           </cell>
           <cell r="E2">
-            <v>36.4</v>
+            <v>8.93</v>
           </cell>
           <cell r="F2">
-            <v>35.702044353156396</v>
+            <v>8.93</v>
           </cell>
           <cell r="G2">
-            <v>40</v>
+            <v>8.8800000000000008</v>
           </cell>
           <cell r="H2">
-            <v>36.4</v>
+            <v>12.54</v>
           </cell>
           <cell r="I2">
-            <v>35.6</v>
+            <v>10.18</v>
           </cell>
           <cell r="J2">
-            <v>34.4</v>
+            <v>10.37</v>
           </cell>
           <cell r="K2">
-            <v>33.6</v>
+            <v>9.5</v>
           </cell>
           <cell r="L2">
-            <v>32.799999999999997</v>
+            <v>7.29</v>
           </cell>
           <cell r="M2">
-            <v>32</v>
+            <v>7.76</v>
           </cell>
           <cell r="N2">
-            <v>32.400000000000006</v>
+            <v>8.52</v>
           </cell>
           <cell r="O2">
-            <v>32.799999999999997</v>
+            <v>7.91</v>
           </cell>
           <cell r="P2">
-            <v>33.199999999999996</v>
+            <v>7.86</v>
           </cell>
           <cell r="Q2">
-            <v>33.6</v>
+            <v>7.35</v>
           </cell>
           <cell r="R2">
-            <v>33.199999999999996</v>
+            <v>9.0500000000000007</v>
           </cell>
           <cell r="S2">
-            <v>33.6</v>
+            <v>7.44</v>
           </cell>
           <cell r="T2">
-            <v>33.199999999999996</v>
+            <v>4.84</v>
           </cell>
           <cell r="U2">
-            <v>33.6</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="V2">
-            <v>33.199999999999996</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="W2">
-            <v>32.799999999999997</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="X2">
-            <v>34</v>
+            <v>8.4</v>
           </cell>
           <cell r="Y2">
-            <v>35.200000000000003</v>
+            <v>9.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>33.916942135498573</v>
+            <v>10.64</v>
           </cell>
           <cell r="C3">
-            <v>33.916942135498573</v>
+            <v>9.02</v>
           </cell>
           <cell r="D3">
-            <v>34.199999999999996</v>
+            <v>5.51</v>
           </cell>
           <cell r="E3">
-            <v>34.58</v>
+            <v>5.7</v>
           </cell>
           <cell r="F3">
-            <v>33.916942135498573</v>
+            <v>5.68</v>
           </cell>
           <cell r="G3">
-            <v>38</v>
+            <v>5.7</v>
           </cell>
           <cell r="H3">
-            <v>34.58</v>
+            <v>11.33</v>
           </cell>
           <cell r="I3">
-            <v>33.82</v>
+            <v>5.98</v>
           </cell>
           <cell r="J3">
-            <v>32.68</v>
+            <v>8.57</v>
           </cell>
           <cell r="K3">
-            <v>31.919999999999998</v>
+            <v>4.71</v>
           </cell>
           <cell r="L3">
-            <v>31.159999999999997</v>
+            <v>9.1</v>
           </cell>
           <cell r="M3">
-            <v>30.4</v>
+            <v>7.08</v>
           </cell>
           <cell r="N3">
-            <v>30.780000000000005</v>
+            <v>7.32</v>
           </cell>
           <cell r="O3">
-            <v>31.159999999999997</v>
+            <v>5.7</v>
           </cell>
           <cell r="P3">
-            <v>31.539999999999996</v>
+            <v>5.7</v>
           </cell>
           <cell r="Q3">
-            <v>31.919999999999998</v>
+            <v>4.84</v>
           </cell>
           <cell r="R3">
-            <v>31.539999999999996</v>
+            <v>4.88</v>
           </cell>
           <cell r="S3">
-            <v>31.919999999999998</v>
+            <v>4.9400000000000004</v>
           </cell>
           <cell r="T3">
-            <v>31.539999999999996</v>
+            <v>5.68</v>
           </cell>
           <cell r="U3">
-            <v>31.919999999999998</v>
+            <v>4.75</v>
           </cell>
           <cell r="V3">
-            <v>31.539999999999996</v>
+            <v>3.85</v>
           </cell>
           <cell r="W3">
-            <v>31.159999999999997</v>
+            <v>5.6</v>
           </cell>
           <cell r="X3">
-            <v>32.299999999999997</v>
+            <v>6.65</v>
           </cell>
           <cell r="Y3">
-            <v>33.44</v>
+            <v>9.86</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>37.487146570814218</v>
+            <v>6.17</v>
           </cell>
           <cell r="C4">
-            <v>37.487146570814218</v>
+            <v>7.51</v>
           </cell>
           <cell r="D4">
-            <v>37.800000000000004</v>
+            <v>7.6</v>
           </cell>
           <cell r="E4">
-            <v>38.22</v>
+            <v>7.89</v>
           </cell>
           <cell r="F4">
-            <v>37.487146570814218</v>
+            <v>7.98</v>
           </cell>
           <cell r="G4">
-            <v>42</v>
+            <v>8.44</v>
           </cell>
           <cell r="H4">
-            <v>38.22</v>
+            <v>7.6</v>
           </cell>
           <cell r="I4">
-            <v>37.380000000000003</v>
+            <v>7.34</v>
           </cell>
           <cell r="J4">
-            <v>36.119999999999997</v>
+            <v>6.54</v>
           </cell>
           <cell r="K4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="L4">
-            <v>34.44</v>
+            <v>8.44</v>
           </cell>
           <cell r="M4">
-            <v>33.6</v>
+            <v>6.49</v>
           </cell>
           <cell r="N4">
-            <v>34.02000000000001</v>
+            <v>6.44</v>
           </cell>
           <cell r="O4">
-            <v>34.44</v>
+            <v>6.54</v>
           </cell>
           <cell r="P4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="Q4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="R4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="S4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="T4">
-            <v>34.86</v>
+            <v>5.78</v>
           </cell>
           <cell r="U4">
-            <v>35.28</v>
+            <v>1.5</v>
           </cell>
           <cell r="V4">
-            <v>34.86</v>
+            <v>3.8</v>
           </cell>
           <cell r="W4">
-            <v>34.44</v>
+            <v>4.18</v>
           </cell>
           <cell r="X4">
-            <v>35.700000000000003</v>
+            <v>4.28</v>
           </cell>
           <cell r="Y4">
-            <v>36.960000000000008</v>
+            <v>6.54</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="C5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="D5">
-            <v>32.4</v>
-          </cell>
-          <cell r="E5">
-            <v>32.76</v>
-          </cell>
-          <cell r="F5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="G5">
-            <v>36</v>
-          </cell>
-          <cell r="H5">
-            <v>32.76</v>
-          </cell>
-          <cell r="I5">
-            <v>32.04</v>
-          </cell>
-          <cell r="J5">
-            <v>30.96</v>
-          </cell>
-          <cell r="K5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="L5">
-            <v>29.52</v>
-          </cell>
-          <cell r="M5">
-            <v>28.8</v>
-          </cell>
-          <cell r="N5">
-            <v>29.160000000000007</v>
-          </cell>
-          <cell r="O5">
-            <v>29.52</v>
-          </cell>
-          <cell r="P5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="Q5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="R5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="S5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="T5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="U5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="V5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="W5">
-            <v>29.52</v>
-          </cell>
-          <cell r="X5">
-            <v>30.6</v>
-          </cell>
-          <cell r="Y5">
-            <v>31.680000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="C6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="D6">
-            <v>39.6</v>
-          </cell>
-          <cell r="E6">
-            <v>40.04</v>
-          </cell>
-          <cell r="F6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="G6">
-            <v>44</v>
-          </cell>
-          <cell r="H6">
-            <v>40.04</v>
-          </cell>
-          <cell r="I6">
-            <v>39.160000000000004</v>
-          </cell>
-          <cell r="J6">
-            <v>37.840000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="L6">
-            <v>36.08</v>
-          </cell>
-          <cell r="M6">
-            <v>35.200000000000003</v>
-          </cell>
-          <cell r="N6">
-            <v>35.640000000000008</v>
-          </cell>
-          <cell r="O6">
-            <v>36.08</v>
-          </cell>
-          <cell r="P6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="Q6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="R6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="S6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="T6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="U6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="V6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="W6">
-            <v>36.08</v>
-          </cell>
-          <cell r="X6">
-            <v>37.400000000000006</v>
-          </cell>
-          <cell r="Y6">
-            <v>38.720000000000006</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -3406,23 +3140,23 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.15</v>
@@ -3438,7 +3172,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3194,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3273,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.48221744547257</v>
+        <v>29.852145849062385</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.87000691471084</v>
+        <v>23.429411439112599</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.67647846931115</v>
+        <v>23.338950391085138</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.3216669528571</v>
+        <v>23.338950391085138</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.77327079167512</v>
+        <v>23.158028295030217</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.02678012930315</v>
+        <v>23.158028295030217</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.1318595861523</v>
+        <v>22.461478225218759</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.3737560930698</v>
+        <v>22.461478225218759</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.92209605492354</v>
+        <v>22.461478225218759</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.53892884080383</v>
+        <v>22.162956766728136</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.64282413741628</v>
+        <v>22.162956766728136</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.2558234459452</v>
+        <v>22.461478225218759</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.04036589801763</v>
+        <v>22.615262006865443</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.52179059137922</v>
+        <v>23.158028295030217</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.63143610401863</v>
+        <v>23.004244513383529</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.36248045832868</v>
+        <v>21.710651526590826</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.12830710544213</v>
+        <v>19.991891614069054</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.51282707778329</v>
+        <v>19.358664277876819</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>117.03410790086457</v>
+        <v>22.461478225218759</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.92626672824434</v>
+        <v>22.796184102920368</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.11060686273515</v>
+        <v>23.158028295030217</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.8957694945901</v>
+        <v>27.074991674619309</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.34872609162954</v>
+        <v>29.788823115443162</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.92232085223651</v>
+        <v>27.047853360211072</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.40810657319892</v>
+        <v>28.359538556609269</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.17650656897527</v>
+        <v>25.039618094001419</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.1426545458456</v>
+        <v>24.180238137740535</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.00558360521421</v>
+        <v>23.981223832080119</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.38460725209134</v>
+        <v>24.008362146488356</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.32544112283799</v>
+        <v>24.958203150776704</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.7752666068447</v>
+        <v>30.575834233282077</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.70506828841633</v>
+        <v>34.547074241687653</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.87599125217739</v>
+        <v>35.008425586627709</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.96198239876364</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.26068293054544</v>
+        <v>34.592304765701385</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.64303227364795</v>
+        <v>34.375198250435474</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.63834760311673</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.19570106181025</v>
+        <v>34.800365176164547</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.0498642988177</v>
+        <v>35.008425586627709</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.39435643541223</v>
+        <v>34.329967726421749</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.32189175017002</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.73718572389411</v>
+        <v>34.872734014586513</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>111.18240250582134</v>
+        <v>36.645770555924763</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.27995339183211</v>
+        <v>38.834927918189344</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.0550765195984</v>
+        <v>37.821764180281768</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.8509810198606</v>
+        <v>36.618632241516522</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.73128978704804</v>
+        <v>35.931128276507813</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.67620480962469</v>
+        <v>34.329967726421749</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.55632831774619</v>
+        <v>29.996883525906323</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.56350726044639</v>
+        <v>25.87185973585407</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.21030239277673</v>
+        <v>24.424482967414679</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.63775030049996</v>
+        <v>23.972177727277369</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.16193433125886</v>
+        <v>24.876788207551989</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.72811913576831</v>
+        <v>25.356231762097536</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.48845256545991</v>
+        <v>29.852145849062385</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.0424438977233</v>
+        <v>34.139999525564079</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.96820085766973</v>
+        <v>35.994451010127037</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.11587528284406</v>
+        <v>36.627678346319279</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.0249653442871</v>
+        <v>36.021589324535277</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.86861461824247</v>
+        <v>34.44756708885744</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.4423841929185</v>
+        <v>33.660555971018525</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.84788012094819</v>
+        <v>31.317614827107263</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.21300790921958</v>
+        <v>30.014975735511818</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.33060448124512</v>
+        <v>27.138314408238532</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.93472246071426</v>
+        <v>26.233703927963916</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.28846843167244</v>
+        <v>27.337328713898948</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.88581329590782</v>
+        <v>29.381748399319584</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.57258006465653</v>
+        <v>32.746899385941163</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16613720587191</v>
+        <v>37.722257027451562</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.9405579693196</v>
+        <v>39.64003124563375</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.96616239621102</v>
+        <v>38.201700581997109</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.16843689484833</v>
+        <v>33.986215743917391</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.3339957009253</v>
+        <v>36.09395816295725</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.48300622323976</v>
+        <v>34.592304765701385</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.60883062238005</v>
+        <v>32.059395420932454</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.68950025757138</v>
+        <v>31.028139473419387</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.9959437125076</v>
+        <v>30.892447901378194</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.62410211637285</v>
+        <v>30.783894643745242</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.41867362753709</v>
+        <v>31.037185578222136</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.03638048376283</v>
+        <v>33.488679979766353</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.8298864494312</v>
+        <v>35.967312695718803</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.38503595672347</v>
+        <v>36.537217298291814</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.87854172367466</v>
+        <v>36.44675625026435</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.0302411013507</v>
+        <v>35.777344494861133</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.23632930821586</v>
+        <v>35.840667228480356</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.86961153224129</v>
+        <v>33.443449455752621</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.46829249361679</v>
+        <v>32.35791687942308</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>107.42623241249581</v>
+        <v>31.209061569474311</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.51547639489793</v>
+        <v>31.118600521446851</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>103.96154437000496</v>
+        <v>31.878473324877532</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>105.33069711077812</v>
+        <v>36.745277708754969</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.63364005541989</v>
+        <v>46.153226703611004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.99954617646165</v>
+        <v>46.180365018019238</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.8061925451311</v>
+        <v>45.266708432941876</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.1138534824666</v>
+        <v>42.073433437572469</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.43008876701285</v>
+        <v>37.061891376851086</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.63043919001984</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.25700760618193</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>165.7441263162423</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.95383364814282</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.55059787084264</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.4294581422335</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.84504554476754</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.7111317023768</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.01430566041594</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.69282172488425</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.40710655115791</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.48140579053975</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.84440248781939</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.17396965051714</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.79457971442051</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.29872850416155</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.74113781598638</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.06410978556163</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.73751869095102</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.21889340106875</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.22166754900869</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.9853464440491</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.58359870079252</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.4145529374602</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +3792,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,7 +3871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +3972,7 @@
         <v>57.679298698221928</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,7 +4073,7 @@
         <v>54.795333763310822</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4440,7 +4174,7 @@
         <v>60.563263633133033</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4541,7 +4275,7 @@
         <v>51.911368828399738</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4642,7 +4376,7 @@
         <v>63.447228568044125</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4415,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4861,7 +4595,7 @@
         <v>194.70969916944634</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4962,7 +4696,7 @@
         <v>184.974214210974</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5063,7 +4797,7 @@
         <v>204.44518412791868</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5164,7 +4898,7 @@
         <v>175.23872925250171</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5278,9 +5012,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5458,7 +5192,7 @@
         <v>159.30793568409243</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5559,7 +5293,7 @@
         <v>151.34253889988781</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5660,7 +5394,7 @@
         <v>167.27333246829707</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5761,7 +5495,7 @@
         <v>143.3771421156832</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5875,9 +5609,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5688,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.48221744547257</v>
+        <v>28.359538556609269</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.87000691471084</v>
+        <v>25.039618094001419</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.67647846931115</v>
+        <v>24.180238137740535</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.3216669528571</v>
+        <v>23.981223832080119</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.77327079167512</v>
+        <v>24.008362146488356</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.02678012930315</v>
+        <v>24.958203150776704</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.1318595861523</v>
+        <v>30.575834233282077</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.3737560930698</v>
+        <v>34.547074241687653</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.92209605492354</v>
+        <v>35.008425586627709</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.53892884080383</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.64282413741628</v>
+        <v>34.592304765701385</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.2558234459452</v>
+        <v>34.375198250435474</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.04036589801763</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.52179059137922</v>
+        <v>34.800365176164547</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.63143610401863</v>
+        <v>35.008425586627709</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.36248045832868</v>
+        <v>34.329967726421749</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.12830710544213</v>
+        <v>34.764180756953557</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.51282707778329</v>
+        <v>34.872734014586513</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>117.03410790086457</v>
+        <v>36.645770555924763</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.92626672824434</v>
+        <v>38.834927918189344</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.11060686273515</v>
+        <v>37.821764180281768</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.8957694945901</v>
+        <v>36.618632241516522</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.34872609162954</v>
+        <v>35.931128276507813</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.92232085223651</v>
+        <v>34.329967726421749</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.40810657319892</v>
+        <v>29.996883525906323</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.17650656897527</v>
+        <v>25.87185973585407</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.1426545458456</v>
+        <v>24.424482967414679</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.00558360521421</v>
+        <v>23.972177727277369</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.38460725209134</v>
+        <v>24.876788207551989</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.32544112283799</v>
+        <v>25.356231762097536</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.7752666068447</v>
+        <v>29.852145849062385</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.70506828841633</v>
+        <v>34.139999525564079</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.87599125217739</v>
+        <v>35.994451010127037</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.96198239876364</v>
+        <v>36.627678346319279</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.26068293054544</v>
+        <v>36.021589324535277</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.64303227364795</v>
+        <v>34.44756708885744</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.63834760311673</v>
+        <v>33.660555971018525</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.19570106181025</v>
+        <v>31.317614827107263</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.0498642988177</v>
+        <v>30.014975735511818</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.39435643541223</v>
+        <v>27.138314408238532</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.32189175017002</v>
+        <v>26.233703927963916</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.73718572389411</v>
+        <v>27.337328713898948</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>111.18240250582134</v>
+        <v>29.381748399319584</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.27995339183211</v>
+        <v>32.746899385941163</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.0550765195984</v>
+        <v>37.722257027451562</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.8509810198606</v>
+        <v>39.64003124563375</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.73128978704804</v>
+        <v>38.201700581997109</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.67620480962469</v>
+        <v>33.986215743917391</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.55632831774619</v>
+        <v>36.09395816295725</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.56350726044639</v>
+        <v>34.592304765701385</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.21030239277673</v>
+        <v>32.059395420932454</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.63775030049996</v>
+        <v>31.028139473419387</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.16193433125886</v>
+        <v>30.892447901378194</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.72811913576831</v>
+        <v>30.783894643745242</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.48845256545991</v>
+        <v>31.037185578222136</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.0424438977233</v>
+        <v>33.488679979766353</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.96820085766973</v>
+        <v>35.967312695718803</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.11587528284406</v>
+        <v>36.537217298291814</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.0249653442871</v>
+        <v>36.44675625026435</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.86861461824247</v>
+        <v>35.777344494861133</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.4423841929185</v>
+        <v>35.840667228480356</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.84788012094819</v>
+        <v>33.443449455752621</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.21300790921958</v>
+        <v>32.35791687942308</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.33060448124512</v>
+        <v>31.209061569474311</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.93472246071426</v>
+        <v>31.118600521446851</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.28846843167244</v>
+        <v>31.878473324877532</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.88581329590782</v>
+        <v>36.745277708754969</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.57258006465653</v>
+        <v>46.153226703611004</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16613720587191</v>
+        <v>46.180365018019238</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.9405579693196</v>
+        <v>45.266708432941876</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.96616239621102</v>
+        <v>42.073433437572469</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.16843689484833</v>
+        <v>37.061891376851086</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.3339957009253</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.48300622323976</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.60883062238005</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.68950025757138</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.9959437125076</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.62410211637285</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.41867362753709</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.03638048376283</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.8298864494312</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.38503595672347</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.87854172367466</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.0302411013507</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.23632930821586</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.86961153224129</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.46829249361679</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>107.42623241249581</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.51547639489793</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>103.96154437000496</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>105.33069711077812</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.63364005541989</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.99954617646165</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.8061925451311</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.1138534824666</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.43008876701285</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.63043919001984</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.25700760618193</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>165.7441263162423</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.95383364814282</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.55059787084264</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.4294581422335</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.84504554476754</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.7111317023768</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.01430566041594</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.69282172488425</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.40710655115791</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.48140579053975</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.84440248781939</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.17396965051714</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.79457971442051</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.29872850416155</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.74113781598638</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.06410978556163</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.73751869095102</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.21889340106875</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.22166754900869</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.9853464440491</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.58359870079252</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.4145529374602</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6207,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6286,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.501956829058948</v>
+        <v>22.121321943920339</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.501956829058948</v>
+        <v>24.382612631521088</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.990191850454238</v>
+        <v>14.616458647390328</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.645638426570393</v>
+        <v>14.632844811793232</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.501956829058948</v>
+        <v>14.632844811793232</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.544657611615818</v>
+        <v>14.550913989778714</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.645638426570393</v>
+        <v>20.548250161241558</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.334745274338083</v>
+        <v>16.681115362156227</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.368405545989603</v>
+        <v>16.992452485811402</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.057512393757293</v>
+        <v>15.566856182758757</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.746619241524968</v>
+        <v>11.945513849716983</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.435726089292658</v>
+        <v>12.715663576653469</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.091172665408827</v>
+        <v>13.961012071274169</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.746619241524968</v>
+        <v>12.961456042697028</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.402065817641123</v>
+        <v>12.87952522068251</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.057512393757293</v>
+        <v>12.043830836134406</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.402065817641123</v>
+        <v>14.829478784628082</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.057512393757293</v>
+        <v>12.191306315760544</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.402065817641123</v>
+        <v>7.9309035710055138</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.057512393757293</v>
+        <v>6.996892200039988</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.402065817641123</v>
+        <v>6.996892200039988</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.746619241524968</v>
+        <v>8.0292205574229385</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.712958969873448</v>
+        <v>13.764378098439323</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.679298698221928</v>
+        <v>15.566856182758757</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.576858987605995</v>
+        <v>17.434878924689809</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.576858987605995</v>
+        <v>14.780320291419367</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.040682257931522</v>
+        <v>9.0287765860000793</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.663356505241872</v>
+        <v>9.3401137096552542</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.576858987605995</v>
+        <v>9.3073413808494454</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.267424731035028</v>
+        <v>9.3401137096552542</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.663356505241872</v>
+        <v>18.565524268490183</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.418008010621179</v>
+        <v>9.7989263129365654</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.549985268690129</v>
+        <v>14.042942893288691</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.304636774069422</v>
+        <v>7.7178834337677626</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.059288279448722</v>
+        <v>14.911409606642598</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.813939784828023</v>
+        <v>11.601404397256001</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.43661403213838</v>
+        <v>11.994672342925696</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.059288279448722</v>
+        <v>9.3401137096552542</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.681962526759065</v>
+        <v>9.3401137096552542</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.304636774069422</v>
+        <v>7.9309035710055138</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.681962526759065</v>
+        <v>7.9964482286171297</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.304636774069422</v>
+        <v>8.0947652150345544</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.681962526759065</v>
+        <v>9.3073413808494454</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.304636774069422</v>
+        <v>7.7834280913793785</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.681962526759065</v>
+        <v>6.3086732951180231</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.059288279448722</v>
+        <v>9.1762520656262136</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.927311021379772</v>
+        <v>10.896799327931131</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.795333763310822</v>
+        <v>16.1567581012633</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.4270546705119</v>
+        <v>10.11026343659174</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.4270546705119</v>
+        <v>12.306009466580869</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.939701442976961</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.627920347898915</v>
+        <v>12.928683713891221</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.4270546705119</v>
+        <v>13.076159193517357</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.821890492196616</v>
+        <v>13.829922756050937</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.627920347898915</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.251482538054987</v>
+        <v>12.027444671731503</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.186825823289084</v>
+        <v>10.716551519499188</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.810388013445156</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.433950203601221</v>
+        <v>13.829922756050937</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.057512393757293</v>
+        <v>10.634620697484667</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.745731298679274</v>
+        <v>10.552689875470149</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.433950203601221</v>
+        <v>10.716551519499188</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.122169108523188</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.810388013445156</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.122169108523188</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.810388013445156</v>
+        <v>12.453484946207006</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.122169108523188</v>
+        <v>9.471203024878486</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.810388013445156</v>
+        <v>2.4579246604355935</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.122169108523188</v>
+        <v>6.2267424731035028</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.433950203601221</v>
+        <v>6.8494167204138527</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.498606918367123</v>
+        <v>7.0132783644428933</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.563263633133033</v>
+        <v>10.716551519499188</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.651761146153056</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.651761146153056</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.091172665408813</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.681074583913357</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.651761146153056</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.990191850454238</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.681074583913357</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.501270746904275</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.731564991390648</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.551761154381566</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.371957317372477</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.192153480363395</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.782055398867946</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.371957317372477</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.961859235877014</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.551761154381566</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.961859235877014</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.551761154381566</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.961859235877014</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.551761154381566</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.961859235877014</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.371957317372477</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.141663072886104</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.911368828399738</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.35215251196486</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.35215251196486</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.88921103549967</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.610202269227443</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.35215251196486</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.099123372777399</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.610202269227443</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.168219801771897</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.005246100588572</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.563263633133033</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.121281165677466</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.679298698221928</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.400289931949708</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.121281165677466</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.842272399405239</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.563263633133033</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.842272399405239</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.563263633133033</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.842272399405239</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.563263633133033</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.842272399405239</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>59.121281165677466</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.284254866860806</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.447228568044125</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +6830,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +6909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7276,7 +7010,7 @@
         <v>194.70969916944634</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7377,7 +7111,7 @@
         <v>184.974214210974</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7478,7 +7212,7 @@
         <v>204.44518412791868</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7579,7 +7313,7 @@
         <v>175.23872925250171</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7693,9 +7427,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7607,7 @@
         <v>159.30793568409243</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,7 +7708,7 @@
         <v>151.34253889988781</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8075,7 +7809,7 @@
         <v>167.27333246829707</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8176,7 +7910,7 @@
         <v>143.3771421156832</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
